--- a/config/upload.xlsx
+++ b/config/upload.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\app_ancol\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>KODE_BLOK</t>
   </si>
@@ -97,6 +92,21 @@
   </si>
   <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC </t>
+  </si>
+  <si>
+    <t>AA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA3 </t>
+  </si>
+  <si>
+    <t>AA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA4 </t>
   </si>
 </sst>
 </file>
@@ -194,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +515,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -576,7 +586,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -647,7 +657,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -718,7 +728,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -745,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1712,7 +1722,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1783,7 +1793,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1</v>
